--- a/examples/test.xlsx
+++ b/examples/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrick/github/fws-zeugnis/import/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrick/github/simple-xlsx2json-api/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45C26851-129E-4843-8B68-415239B85017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DBD315-FC5B-814E-8DA4-C9A0E31B9335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="74560" yWindow="4840" windowWidth="28040" windowHeight="17360" activeTab="1" xr2:uid="{425AFA39-8773-834B-B642-076B7BA27FAE}"/>
   </bookViews>
